--- a/script_DNRPA/registroInscripcionAutoCorientes.xlsx
+++ b/script_DNRPA/registroInscripcionAutoCorientes.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,22 +47,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +388,743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>RRSS / Mes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>5001 - BELLA VISTA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>5002 - CORRIENTES N° 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>5003 - CURUZU CUATIA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>5004 - GOYA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>5005 - MERCEDES</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>5006 - PASO DE LOS LIBRES</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>5007 - SANTO TOME</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>5008 - ESQUINA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>5009 - ITUZAINGO N° 1</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>5010 - MONTE CASEROS</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>5011 - CORRIENTES N° 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>5012 - ALVEAR</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>5013 - CORRIENTES N° 3</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>5014 - CORRIENTES N° 4</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>5015 - SAN COSME</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B2" t="n">
+        <v>178</v>
+      </c>
+      <c r="C2" t="n">
+        <v>364</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61</v>
+      </c>
+      <c r="E2" t="n">
+        <v>238</v>
+      </c>
+      <c r="F2" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2" t="n">
+        <v>169</v>
+      </c>
+      <c r="H2" t="n">
+        <v>136</v>
+      </c>
+      <c r="I2" t="n">
+        <v>106</v>
+      </c>
+      <c r="J2" t="n">
+        <v>405</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>295</v>
+      </c>
+      <c r="M2" t="n">
+        <v>75</v>
+      </c>
+      <c r="N2" t="n">
+        <v>110</v>
+      </c>
+      <c r="O2" t="n">
+        <v>232</v>
+      </c>
+      <c r="P2" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>41671</v>
+      </c>
+      <c r="B3" t="n">
+        <v>87</v>
+      </c>
+      <c r="C3" t="n">
+        <v>159</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>119</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>70</v>
+      </c>
+      <c r="I3" t="n">
+        <v>54</v>
+      </c>
+      <c r="J3" t="n">
+        <v>207</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47</v>
+      </c>
+      <c r="L3" t="n">
+        <v>169</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>68</v>
+      </c>
+      <c r="O3" t="n">
+        <v>95</v>
+      </c>
+      <c r="P3" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>41699</v>
+      </c>
+      <c r="B4" t="n">
+        <v>82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>182</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48</v>
+      </c>
+      <c r="I4" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" t="n">
+        <v>102</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L4" t="n">
+        <v>141</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>65</v>
+      </c>
+      <c r="O4" t="n">
+        <v>97</v>
+      </c>
+      <c r="P4" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C5" t="n">
+        <v>184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>81</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>65</v>
+      </c>
+      <c r="H5" t="n">
+        <v>61</v>
+      </c>
+      <c r="I5" t="n">
+        <v>59</v>
+      </c>
+      <c r="J5" t="n">
+        <v>154</v>
+      </c>
+      <c r="K5" t="n">
+        <v>52</v>
+      </c>
+      <c r="L5" t="n">
+        <v>178</v>
+      </c>
+      <c r="M5" t="n">
+        <v>31</v>
+      </c>
+      <c r="N5" t="n">
+        <v>41</v>
+      </c>
+      <c r="O5" t="n">
+        <v>112</v>
+      </c>
+      <c r="P5" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>41760</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>237</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28</v>
+      </c>
+      <c r="G6" t="n">
+        <v>72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>53</v>
+      </c>
+      <c r="J6" t="n">
+        <v>202</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36</v>
+      </c>
+      <c r="L6" t="n">
+        <v>196</v>
+      </c>
+      <c r="M6" t="n">
+        <v>31</v>
+      </c>
+      <c r="N6" t="n">
+        <v>61</v>
+      </c>
+      <c r="O6" t="n">
+        <v>107</v>
+      </c>
+      <c r="P6" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>41791</v>
+      </c>
+      <c r="B7" t="n">
+        <v>66</v>
+      </c>
+      <c r="C7" t="n">
+        <v>205</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>58</v>
+      </c>
+      <c r="I7" t="n">
+        <v>55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>175</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43</v>
+      </c>
+      <c r="L7" t="n">
+        <v>194</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32</v>
+      </c>
+      <c r="N7" t="n">
+        <v>61</v>
+      </c>
+      <c r="O7" t="n">
+        <v>126</v>
+      </c>
+      <c r="P7" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>41821</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>164</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>92</v>
+      </c>
+      <c r="H8" t="n">
+        <v>60</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>206</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>137</v>
+      </c>
+      <c r="M8" t="n">
+        <v>34</v>
+      </c>
+      <c r="N8" t="n">
+        <v>78</v>
+      </c>
+      <c r="O8" t="n">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>41852</v>
+      </c>
+      <c r="B9" t="n">
+        <v>68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>192</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>106</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31</v>
+      </c>
+      <c r="G9" t="n">
+        <v>70</v>
+      </c>
+      <c r="H9" t="n">
+        <v>56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34</v>
+      </c>
+      <c r="J9" t="n">
+        <v>151</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35</v>
+      </c>
+      <c r="L9" t="n">
+        <v>169</v>
+      </c>
+      <c r="M9" t="n">
+        <v>42</v>
+      </c>
+      <c r="N9" t="n">
+        <v>61</v>
+      </c>
+      <c r="O9" t="n">
+        <v>115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>41883</v>
+      </c>
+      <c r="B10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" t="n">
+        <v>157</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>102</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>82</v>
+      </c>
+      <c r="H10" t="n">
+        <v>65</v>
+      </c>
+      <c r="I10" t="n">
+        <v>55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>171</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+      <c r="L10" t="n">
+        <v>144</v>
+      </c>
+      <c r="M10" t="n">
+        <v>44</v>
+      </c>
+      <c r="N10" t="n">
+        <v>66</v>
+      </c>
+      <c r="O10" t="n">
+        <v>114</v>
+      </c>
+      <c r="P10" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B11" t="n">
+        <v>68</v>
+      </c>
+      <c r="C11" t="n">
+        <v>157</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>89</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="n">
+        <v>161</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44</v>
+      </c>
+      <c r="L11" t="n">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>29</v>
+      </c>
+      <c r="N11" t="n">
+        <v>58</v>
+      </c>
+      <c r="O11" t="n">
+        <v>145</v>
+      </c>
+      <c r="P11" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>41944</v>
+      </c>
+      <c r="B12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C12" t="n">
+        <v>96</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>51</v>
+      </c>
+      <c r="H12" t="n">
+        <v>45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>28</v>
+      </c>
+      <c r="J12" t="n">
+        <v>102</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31</v>
+      </c>
+      <c r="L12" t="n">
+        <v>98</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>53</v>
+      </c>
+      <c r="O12" t="n">
+        <v>75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>41974</v>
+      </c>
+      <c r="B13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>90</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
+        <v>71</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14</v>
+      </c>
+      <c r="L13" t="n">
+        <v>107</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39</v>
+      </c>
+      <c r="O13" t="n">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>584</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/script_DNRPA/registroInscripcionAutoCorientes.xlsx
+++ b/script_DNRPA/registroInscripcionAutoCorientes.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,644 +484,726 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>5016 - CORRIENTES N° 5</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>5017 - ITUZAINGO N° 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>41640</v>
+        <v>44562</v>
       </c>
       <c r="B2" t="n">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>405</v>
+        <v>54</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="L2" t="n">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="M2" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="P2" t="n">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="Q2" t="n">
-        <v>2796</v>
+        <v>89</v>
+      </c>
+      <c r="R2" t="n">
+        <v>63</v>
+      </c>
+      <c r="S2" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>41671</v>
+        <v>44593</v>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" t="n">
+        <v>37</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16</v>
+      </c>
+      <c r="N3" t="n">
         <v>24</v>
       </c>
-      <c r="G3" t="n">
-        <v>99</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="O3" t="n">
+        <v>56</v>
+      </c>
+      <c r="P3" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q3" t="n">
         <v>70</v>
       </c>
-      <c r="I3" t="n">
-        <v>54</v>
-      </c>
-      <c r="J3" t="n">
-        <v>207</v>
-      </c>
-      <c r="K3" t="n">
-        <v>47</v>
-      </c>
-      <c r="L3" t="n">
-        <v>169</v>
-      </c>
-      <c r="M3" t="n">
-        <v>33</v>
-      </c>
-      <c r="N3" t="n">
-        <v>68</v>
-      </c>
-      <c r="O3" t="n">
-        <v>95</v>
-      </c>
-      <c r="P3" t="n">
-        <v>96</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1360</v>
+      <c r="R3" t="n">
+        <v>62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>41699</v>
+        <v>44621</v>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J4" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="O4" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="Q4" t="n">
-        <v>1105</v>
+        <v>64</v>
+      </c>
+      <c r="R4" t="n">
+        <v>62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>41730</v>
+        <v>44652</v>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O5" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1214</v>
+        <v>49</v>
+      </c>
+      <c r="R5" t="n">
+        <v>64</v>
+      </c>
+      <c r="S5" t="n">
+        <v>667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>41760</v>
+        <v>44682</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J6" t="n">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="K6" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="M6" t="n">
+        <v>12</v>
+      </c>
+      <c r="N6" t="n">
         <v>31</v>
       </c>
-      <c r="N6" t="n">
-        <v>61</v>
-      </c>
       <c r="O6" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="Q6" t="n">
-        <v>1344</v>
+        <v>81</v>
+      </c>
+      <c r="R6" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" t="n">
+        <v>815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>41791</v>
+        <v>44713</v>
       </c>
       <c r="B7" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>48</v>
+      </c>
+      <c r="J7" t="n">
+        <v>61</v>
+      </c>
+      <c r="K7" t="n">
         <v>27</v>
       </c>
-      <c r="G7" t="n">
-        <v>60</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>57</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>59</v>
+      </c>
+      <c r="O7" t="n">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>90</v>
+      </c>
+      <c r="R7" t="n">
         <v>58</v>
       </c>
-      <c r="I7" t="n">
-        <v>55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>175</v>
-      </c>
-      <c r="K7" t="n">
-        <v>43</v>
-      </c>
-      <c r="L7" t="n">
-        <v>194</v>
-      </c>
-      <c r="M7" t="n">
-        <v>32</v>
-      </c>
-      <c r="N7" t="n">
-        <v>61</v>
-      </c>
-      <c r="O7" t="n">
-        <v>126</v>
-      </c>
-      <c r="P7" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1298</v>
+      <c r="S7" t="n">
+        <v>826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>41821</v>
+        <v>44743</v>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49</v>
+      </c>
+      <c r="J8" t="n">
         <v>60</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
+        <v>29</v>
+      </c>
+      <c r="L8" t="n">
         <v>52</v>
       </c>
-      <c r="J8" t="n">
-        <v>206</v>
-      </c>
-      <c r="K8" t="n">
-        <v>38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>137</v>
-      </c>
       <c r="M8" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O8" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1269</v>
+        <v>82</v>
+      </c>
+      <c r="R8" t="n">
+        <v>65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>41852</v>
+        <v>44774</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" t="n">
+        <v>77</v>
+      </c>
+      <c r="H9" t="n">
         <v>29</v>
       </c>
-      <c r="E9" t="n">
-        <v>106</v>
-      </c>
-      <c r="F9" t="n">
-        <v>31</v>
-      </c>
-      <c r="G9" t="n">
-        <v>70</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>51</v>
+      </c>
+      <c r="J9" t="n">
         <v>56</v>
       </c>
-      <c r="I9" t="n">
-        <v>34</v>
-      </c>
-      <c r="J9" t="n">
-        <v>151</v>
-      </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L9" t="n">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="M9" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O9" t="n">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="P9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q9" t="n">
-        <v>1249</v>
+        <v>73</v>
+      </c>
+      <c r="R9" t="n">
+        <v>65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>41883</v>
+        <v>44805</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J10" t="n">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="K10" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L10" t="n">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="M10" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O10" t="n">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="P10" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q10" t="n">
-        <v>1264</v>
+        <v>67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>64</v>
+      </c>
+      <c r="S10" t="n">
+        <v>806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>41913</v>
+        <v>44835</v>
       </c>
       <c r="B11" t="n">
+        <v>33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>62</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>44</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
+        <v>51</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>56</v>
+      </c>
+      <c r="O11" t="n">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
         <v>68</v>
       </c>
-      <c r="C11" t="n">
-        <v>157</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28</v>
-      </c>
-      <c r="E11" t="n">
-        <v>89</v>
-      </c>
-      <c r="F11" t="n">
-        <v>37</v>
-      </c>
-      <c r="G11" t="n">
-        <v>55</v>
-      </c>
-      <c r="H11" t="n">
-        <v>36</v>
-      </c>
-      <c r="I11" t="n">
-        <v>48</v>
-      </c>
-      <c r="J11" t="n">
-        <v>161</v>
-      </c>
-      <c r="K11" t="n">
-        <v>44</v>
-      </c>
-      <c r="L11" t="n">
-        <v>134</v>
-      </c>
-      <c r="M11" t="n">
-        <v>29</v>
-      </c>
-      <c r="N11" t="n">
-        <v>58</v>
-      </c>
-      <c r="O11" t="n">
-        <v>145</v>
-      </c>
-      <c r="P11" t="n">
-        <v>89</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1178</v>
+        <v>74</v>
+      </c>
+      <c r="R11" t="n">
+        <v>43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>41944</v>
+        <v>44866</v>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26</v>
+      </c>
+      <c r="J12" t="n">
+        <v>35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" t="n">
         <v>45</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28</v>
-      </c>
-      <c r="J12" t="n">
-        <v>102</v>
-      </c>
-      <c r="K12" t="n">
-        <v>31</v>
-      </c>
-      <c r="L12" t="n">
-        <v>98</v>
       </c>
       <c r="M12" t="n">
         <v>10</v>
       </c>
       <c r="N12" t="n">
+        <v>38</v>
+      </c>
+      <c r="O12" t="n">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>48</v>
+      </c>
+      <c r="R12" t="n">
         <v>53</v>
       </c>
-      <c r="O12" t="n">
-        <v>75</v>
-      </c>
-      <c r="P12" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>816</v>
+      <c r="S12" t="n">
+        <v>635</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41974</v>
+        <v>44896</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23</v>
+      </c>
+      <c r="K13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
-        <v>47</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>20</v>
-      </c>
-      <c r="H13" t="n">
-        <v>21</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>71</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14</v>
-      </c>
       <c r="L13" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="M13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q13" t="n">
-        <v>584</v>
+        <v>38</v>
+      </c>
+      <c r="R13" t="n">
+        <v>26</v>
+      </c>
+      <c r="S13" t="n">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
